--- a/libraries/foo.xlsx
+++ b/libraries/foo.xlsx
@@ -411,16 +411,16 @@
         <v>42552</v>
       </c>
       <c r="B2" t="n">
-        <v>1.365017611939988</v>
+        <v>-0.5548712969480262</v>
       </c>
       <c r="C2" t="n">
-        <v>1.03682160049325</v>
+        <v>1.302279482967087</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55611321274302</v>
+        <v>-1.562369408085755</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2797790974057713</v>
+        <v>0.05875693998945045</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>42553</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1119950017446572</v>
+        <v>-0.05599387479917821</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.287855701949689</v>
+        <v>-0.3247566184360484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08602762443146676</v>
+        <v>-0.9439352797607192</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5143503781961011</v>
+        <v>-2.137659883373106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>42554</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08161889344778296</v>
+        <v>0.2403318134792909</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7308569217587564</v>
+        <v>0.9042895545899261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5384063931566053</v>
+        <v>-1.659526280919161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4583368185269061</v>
+        <v>-0.7444436433377702</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +462,16 @@
         <v>42555</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.67400819294731</v>
+        <v>1.454070239692646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5212982548852332</v>
+        <v>-0.9693564339974895</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.269523094368798</v>
+        <v>-2.575762098140855</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1712819806953866</v>
+        <v>-0.1983246419479466</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,16 +479,16 @@
         <v>42556</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3923777863810607</v>
+        <v>0.5070426674082579</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6586159698114401</v>
+        <v>-0.7518747003935458</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1027222478277011</v>
+        <v>-0.07855752305410084</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07690746711316987</v>
+        <v>0.6936143250162994</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,16 +496,16 @@
         <v>42557</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9882545158643954</v>
+        <v>-0.8399049450005838</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.297564757584716</v>
+        <v>0.6850877972670417</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1653259546876528</v>
+        <v>0.9099948836218397</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6275803678002251</v>
+        <v>-1.092506540748217</v>
       </c>
     </row>
   </sheetData>

--- a/libraries/foo.xlsx
+++ b/libraries/foo.xlsx
@@ -411,16 +411,16 @@
         <v>42552</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5548712969480262</v>
+        <v>0.8584907056561613</v>
       </c>
       <c r="C2" t="n">
-        <v>1.302279482967087</v>
+        <v>-1.136133678162782</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.562369408085755</v>
+        <v>-1.353930146379499</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05875693998945045</v>
+        <v>-0.4661360042299631</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>42553</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05599387479917821</v>
+        <v>0.05050834871663091</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3247566184360484</v>
+        <v>-0.4429807757201948</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9439352797607192</v>
+        <v>0.60901508152606</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.137659883373106</v>
+        <v>0.1215326331348544</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>42554</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2403318134792909</v>
+        <v>0.1984124645323283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9042895545899261</v>
+        <v>0.7612575278724043</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.659526280919161</v>
+        <v>0.6196461977140431</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7444436433377702</v>
+        <v>1.609844652294664</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +462,16 @@
         <v>42555</v>
       </c>
       <c r="B5" t="n">
-        <v>1.454070239692646</v>
+        <v>-1.999795234149702</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9693564339974895</v>
+        <v>0.02406512142064902</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.575762098140855</v>
+        <v>0.7983183596932647</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1983246419479466</v>
+        <v>-0.5549081547125464</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,16 +479,16 @@
         <v>42556</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5070426674082579</v>
+        <v>2.396493662929947</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7518747003935458</v>
+        <v>-1.122637877052295</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07855752305410084</v>
+        <v>0.3994665000957171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6936143250162994</v>
+        <v>0.7608617684330737</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,16 +496,16 @@
         <v>42557</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8399049450005838</v>
+        <v>-0.1886249239057699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6850877972670417</v>
+        <v>-0.6043753294928031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9099948836218397</v>
+        <v>0.7657798323358969</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.092506540748217</v>
+        <v>0.04607123085814054</v>
       </c>
     </row>
   </sheetData>
